--- a/EXCEL/my pratice/day3.xlsx
+++ b/EXCEL/my pratice/day3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data-analyst\EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data-analyst\EXCEL\my pratice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49725435-CE2E-4593-BB4B-3EADF81FCFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434374E0-C24A-4756-813B-31BD2EE11464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{822FE928-9A98-44B7-995D-F12687AFC738}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="8" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -733,7 +733,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{21F14579-8479-4AAA-AF9B-47E651AF8EF6}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{21F14579-8479-4AAA-AF9B-47E651AF8EF6}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
   <location ref="I27:L32" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -810,7 +810,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F8E5DCD7-9251-4168-BEAD-7DF387E0C5B0}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F8E5DCD7-9251-4168-BEAD-7DF387E0C5B0}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
   <location ref="I12:M16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="L1">
         <f t="shared" ref="L1:L6" ca="1" si="0">COUNTIFS(D:D,J1,E:E,K1)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="C2" s="10">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D2" s="10" t="str">
         <f ca="1">IF(C2&lt;35,"FAIL","PASS")</f>
@@ -2060,14 +2060,14 @@
       </c>
       <c r="E2" s="14">
         <f ca="1">TODAY()</f>
-        <v>45757</v>
+        <v>45760</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
       </c>
       <c r="I2">
         <f ca="1">COUNTIF(C:C,"&gt;34")</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>26</v>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -2089,22 +2089,22 @@
       </c>
       <c r="C3" s="10">
         <f t="shared" ref="C3:C31" ca="1" si="1">RANDBETWEEN(1,100)</f>
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="D3" s="10" t="str">
         <f t="shared" ref="D3:D31" ca="1" si="2">IF(C3&lt;35,"FAIL","PASS")</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="E3" s="14">
         <f t="shared" ref="E3:E11" ca="1" si="3">TODAY()</f>
-        <v>45757</v>
+        <v>45760</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
       </c>
       <c r="I3">
         <f ca="1">COUNTIF(C:C,"&lt;35")</f>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>25</v>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="C4" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D4" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="E4" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45757</v>
+        <v>45760</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -2166,15 +2166,15 @@
       </c>
       <c r="C5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D5" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="E5" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45757</v>
+        <v>45760</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>25</v>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -2196,15 +2196,15 @@
       </c>
       <c r="C6" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="D6" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E6" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45757</v>
+        <v>45760</v>
       </c>
       <c r="G6" t="s">
         <v>41</v>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -2229,15 +2229,15 @@
       </c>
       <c r="C7" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="D7" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E7" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45757</v>
+        <v>45760</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>42</v>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="L7">
         <f ca="1">SUM(L1:L6)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="C8" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="D8" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="E8" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45757</v>
+        <v>45760</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C9" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="D9" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="E9" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45757</v>
+        <v>45760</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="C10" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="D10" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2310,7 +2310,7 @@
       </c>
       <c r="E10" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45757</v>
+        <v>45760</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -2322,7 +2322,7 @@
       </c>
       <c r="C11" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D11" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="E11" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45757</v>
+        <v>45760</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -2342,7 +2342,7 @@
       </c>
       <c r="C12" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D12" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="E12" s="15">
         <f ca="1">E2-1</f>
-        <v>45756</v>
+        <v>45759</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="C13" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D13" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E13" s="15">
         <f t="shared" ref="E13:E31" ca="1" si="4">E3-1</f>
-        <v>45756</v>
+        <v>45759</v>
       </c>
       <c r="H13" t="s">
         <v>43</v>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="C14" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="D14" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="E14" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>45756</v>
+        <v>45759</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="C15" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="D15" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="E15" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>45756</v>
+        <v>45759</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -2425,15 +2425,15 @@
       </c>
       <c r="C16" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D16" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E16" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>45756</v>
+        <v>45759</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -2445,15 +2445,15 @@
       </c>
       <c r="C17" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="D17" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E17" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>45756</v>
+        <v>45759</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -2465,15 +2465,15 @@
       </c>
       <c r="C18" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D18" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="E18" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>45756</v>
+        <v>45759</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -2485,7 +2485,7 @@
       </c>
       <c r="C19" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="D19" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="E19" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>45756</v>
+        <v>45759</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -2505,15 +2505,15 @@
       </c>
       <c r="C20" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D20" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E20" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>45756</v>
+        <v>45759</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -2525,15 +2525,15 @@
       </c>
       <c r="C21" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="D21" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E21" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>45756</v>
+        <v>45759</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -2545,15 +2545,15 @@
       </c>
       <c r="C22" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="D22" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E22" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>45755</v>
+        <v>45758</v>
       </c>
       <c r="H22" t="s">
         <v>45</v>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="C23" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D23" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="E23" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>45755</v>
+        <v>45758</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C24" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D24" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2596,7 +2596,7 @@
       </c>
       <c r="E24" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>45755</v>
+        <v>45758</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -2608,15 +2608,15 @@
       </c>
       <c r="C25" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="D25" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E25" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>45755</v>
+        <v>45758</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2628,15 +2628,15 @@
       </c>
       <c r="C26" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="D26" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E26" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>45755</v>
+        <v>45758</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="C27" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D27" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="E27" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>45755</v>
+        <v>45758</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -2668,15 +2668,15 @@
       </c>
       <c r="C28" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D28" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E28" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>45755</v>
+        <v>45758</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -2688,15 +2688,15 @@
       </c>
       <c r="C29" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D29" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E29" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>45755</v>
+        <v>45758</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -2708,15 +2708,15 @@
       </c>
       <c r="C30" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="D30" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="E30" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>45755</v>
+        <v>45758</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -2728,15 +2728,15 @@
       </c>
       <c r="C31" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="D31" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="E31" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>45755</v>
+        <v>45758</v>
       </c>
     </row>
   </sheetData>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="E2" s="14">
         <f ca="1">TODAY()</f>
-        <v>45757</v>
+        <v>45760</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>52</v>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="E3" s="14">
         <f t="shared" ref="E3:E11" ca="1" si="1">TODAY()</f>
-        <v>45757</v>
+        <v>45760</v>
       </c>
       <c r="I3" t="s">
         <v>57</v>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="E4" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45757</v>
+        <v>45760</v>
       </c>
       <c r="J4" t="str">
         <f>$A$1</f>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="E5" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45757</v>
+        <v>45760</v>
       </c>
       <c r="I5" t="s">
         <v>46</v>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="E6" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45757</v>
+        <v>45760</v>
       </c>
       <c r="O6">
         <f t="shared" ref="O6:P14" si="2">$A2</f>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="E7" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45757</v>
+        <v>45760</v>
       </c>
       <c r="O7">
         <f t="shared" si="2"/>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="E8" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45757</v>
+        <v>45760</v>
       </c>
       <c r="O8">
         <f t="shared" si="2"/>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="E9" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45757</v>
+        <v>45760</v>
       </c>
       <c r="O9">
         <f t="shared" si="2"/>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="E10" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45757</v>
+        <v>45760</v>
       </c>
       <c r="O10">
         <f t="shared" si="2"/>
@@ -3109,7 +3109,7 @@
       </c>
       <c r="E11" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45757</v>
+        <v>45760</v>
       </c>
       <c r="O11">
         <f t="shared" si="2"/>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="E12" s="15">
         <f ca="1">E2-1</f>
-        <v>45756</v>
+        <v>45759</v>
       </c>
       <c r="I12" s="22" t="s">
         <v>49</v>
@@ -3185,7 +3185,7 @@
       </c>
       <c r="E13" s="15">
         <f t="shared" ref="E13:E31" ca="1" si="4">E3-1</f>
-        <v>45756</v>
+        <v>45759</v>
       </c>
       <c r="I13" s="24" t="s">
         <v>47</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="E14" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>45756</v>
+        <v>45759</v>
       </c>
       <c r="I14" s="19" t="s">
         <v>26</v>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="E15" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>45756</v>
+        <v>45759</v>
       </c>
       <c r="I15" s="19" t="s">
         <v>25</v>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="E16" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>45756</v>
+        <v>45759</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>48</v>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="E17" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>45756</v>
+        <v>45759</v>
       </c>
       <c r="Q17" t="s">
         <v>59</v>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="E18" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>45756</v>
+        <v>45759</v>
       </c>
       <c r="Q18" t="s">
         <v>60</v>
@@ -3398,7 +3398,7 @@
       </c>
       <c r="E19" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>45756</v>
+        <v>45759</v>
       </c>
       <c r="Q19" t="s">
         <v>61</v>
@@ -3423,22 +3423,22 @@
       </c>
       <c r="E20" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>45756</v>
+        <v>45759</v>
       </c>
       <c r="I20" s="25" t="s">
         <v>47</v>
       </c>
       <c r="J20" s="30">
         <f ca="1">K20-1</f>
-        <v>45755</v>
+        <v>45758</v>
       </c>
       <c r="K20" s="30">
         <f ca="1">L20-1</f>
-        <v>45756</v>
+        <v>45759</v>
       </c>
       <c r="L20" s="30">
         <f ca="1">TODAY()</f>
-        <v>45757</v>
+        <v>45760</v>
       </c>
       <c r="M20" s="26" t="s">
         <v>48</v>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="E21" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>45756</v>
+        <v>45759</v>
       </c>
       <c r="I21" s="27" t="s">
         <v>26</v>
@@ -3502,7 +3502,7 @@
       </c>
       <c r="E22" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>45755</v>
+        <v>45758</v>
       </c>
       <c r="I22" s="27" t="s">
         <v>25</v>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="E23" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>45755</v>
+        <v>45758</v>
       </c>
       <c r="I23" s="28" t="s">
         <v>48</v>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="E24" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>45755</v>
+        <v>45758</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
@@ -3597,7 +3597,7 @@
       </c>
       <c r="E25" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>45755</v>
+        <v>45758</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="E26" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>45755</v>
+        <v>45758</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
@@ -3635,7 +3635,7 @@
       </c>
       <c r="E27" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>45755</v>
+        <v>45758</v>
       </c>
       <c r="I27" s="22" t="s">
         <v>49</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="E28" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>45755</v>
+        <v>45758</v>
       </c>
       <c r="I28" s="22" t="s">
         <v>47</v>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="E29" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>45755</v>
+        <v>45758</v>
       </c>
       <c r="I29" s="23">
         <v>45755</v>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="E30" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>45755</v>
+        <v>45758</v>
       </c>
       <c r="I30" s="23">
         <v>45756</v>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="E31" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>45755</v>
+        <v>45758</v>
       </c>
       <c r="I31" s="23">
         <v>45757</v>
@@ -3802,15 +3802,15 @@
       </c>
       <c r="J36">
         <f ca="1">COUNTIFS($D:$D,J$35,$E:$E,$I36)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <f ca="1">COUNTIFS($D:$D,K$35,$E:$E,$I36)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <f ca="1">COUNTIFS($E:$E,$I36)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="9:12" x14ac:dyDescent="0.3">
@@ -3819,15 +3819,15 @@
       </c>
       <c r="J37">
         <f t="shared" ref="J37:K38" ca="1" si="7">COUNTIFS($D:$D,J$35,$E:$E,$I37)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <f t="shared" ref="L37:L38" ca="1" si="8">COUNTIFS($E:$E,$I37)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="9:12" x14ac:dyDescent="0.3">
@@ -3836,15 +3836,15 @@
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="9:12" x14ac:dyDescent="0.3">
